--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/БПИ толщина 2.0 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/БПИ толщина 2.0 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,6 +639,17 @@
       </c>
       <c r="D22">
         <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>29.1</v>
+      </c>
+      <c r="D23">
+        <v>29.5</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -680,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.09047619047618</v>
+        <v>31.95454545454545</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -719,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.16190476190476</v>
+        <v>32.04090909090908</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -832,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9571586890102274</v>
+        <v>0.9587434043233063</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -845,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9571586890102274</v>
+        <v>0.9587434043233063</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -874,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.69033543668903</v>
+        <v>2.701803149702113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -887,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.778214568833047</v>
+        <v>2.770019613289526</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/БПИ толщина 2.0 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/БПИ толщина 2.0 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,6 +650,17 @@
       </c>
       <c r="D23">
         <v>29.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>31.1</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -691,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.95454545454545</v>
+        <v>31.91304347826086</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -730,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.04090909090908</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9587434043233063</v>
+        <v>0.9589636845025326</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -856,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9587434043233063</v>
+        <v>0.9589636845025326</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -885,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.701803149702113</v>
+        <v>2.647177630442397</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -898,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.770019613289526</v>
+        <v>2.713434589727062</v>
       </c>
     </row>
   </sheetData>
